--- a/公司/时间捕手项目计划.xlsx
+++ b/公司/时间捕手项目计划.xlsx
@@ -204,10 +204,6 @@
   </si>
   <si>
     <t>基础UI开发</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI动效表现</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -460,6 +456,10 @@
   </si>
   <si>
     <t>整理当前版本的问题</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计概念草稿第三波</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -952,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D119"/>
+  <dimension ref="A1:D118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B29" sqref="B29:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="10">
         <v>43441</v>
@@ -1091,7 +1091,7 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="10">
         <v>43444</v>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="10">
         <v>43444</v>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" s="10">
         <v>43444</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="4">
         <v>43446</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="23" spans="2:3" s="13" customFormat="1">
       <c r="B23" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" s="4">
         <v>43447</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="4">
         <v>43448</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25" s="4">
         <v>43452</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C26" s="4">
         <v>43459</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C27" s="4">
         <v>43461</v>
@@ -1179,106 +1179,112 @@
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C28" s="4">
         <v>43461</v>
       </c>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" t="s">
+      <c r="B29" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="4">
+        <v>43468</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="2">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="2">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="2">
-        <v>43462</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="2">
-        <v>43462</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="2">
-        <v>43463</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="C33" s="2">
-        <v>43463</v>
+        <v>43473</v>
       </c>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="8"/>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" s="2"/>
+      <c r="B34" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="2">
+        <v>43474</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="2"/>
+      <c r="B37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="4">
+        <v>43434</v>
+      </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="6" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="C38" s="4">
-        <v>43434</v>
+        <v>43446</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="6" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="C39" s="4">
-        <v>43446</v>
+        <v>43459</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C40" s="4">
-        <v>43459</v>
+        <v>43462</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="12" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C41" s="2">
-        <v>43462</v>
+        <v>43474</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C42" s="2">
-        <v>43468</v>
+        <v>43476</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C43" s="2">
-        <v>43473</v>
+        <v>43480</v>
       </c>
     </row>
     <row r="44" spans="2:3">
@@ -1290,7 +1296,7 @@
         <v>19</v>
       </c>
       <c r="C45" s="2">
-        <v>43479</v>
+        <v>43483</v>
       </c>
     </row>
     <row r="46" spans="2:3">
@@ -1298,7 +1304,7 @@
         <v>20</v>
       </c>
       <c r="C46" s="2">
-        <v>43479</v>
+        <v>43483</v>
       </c>
     </row>
     <row r="47" spans="2:3">
@@ -1306,7 +1312,7 @@
         <v>21</v>
       </c>
       <c r="C47" s="2">
-        <v>43479</v>
+        <v>43490</v>
       </c>
     </row>
     <row r="48" spans="2:3">
@@ -1314,7 +1320,7 @@
         <v>22</v>
       </c>
       <c r="C48" s="2">
-        <v>43479</v>
+        <v>43483</v>
       </c>
     </row>
     <row r="49" spans="2:3">
@@ -1322,7 +1328,7 @@
         <v>23</v>
       </c>
       <c r="C49" s="2">
-        <v>43479</v>
+        <v>43487</v>
       </c>
     </row>
     <row r="51" spans="2:3">
@@ -1405,7 +1411,7 @@
     </row>
     <row r="61" spans="2:3">
       <c r="B61" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C61" s="10">
         <v>43444</v>
@@ -1429,7 +1435,7 @@
     </row>
     <row r="64" spans="2:3">
       <c r="B64" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" s="4">
         <v>43447</v>
@@ -1437,7 +1443,7 @@
     </row>
     <row r="65" spans="2:3">
       <c r="B65" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C65" s="4">
         <v>43448</v>
@@ -1445,7 +1451,7 @@
     </row>
     <row r="66" spans="2:3">
       <c r="B66" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C66" s="4">
         <v>43448</v>
@@ -1453,7 +1459,7 @@
     </row>
     <row r="68" spans="2:3">
       <c r="B68" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C68" s="4">
         <v>43451</v>
@@ -1469,7 +1475,7 @@
     </row>
     <row r="70" spans="2:3" s="12" customFormat="1">
       <c r="B70" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C70" s="4">
         <v>43454</v>
@@ -1477,7 +1483,7 @@
     </row>
     <row r="71" spans="2:3">
       <c r="B71" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C71" s="4">
         <v>43455</v>
@@ -1485,7 +1491,7 @@
     </row>
     <row r="72" spans="2:3">
       <c r="B72" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C72" s="4">
         <v>43455</v>
@@ -1493,7 +1499,7 @@
     </row>
     <row r="73" spans="2:3">
       <c r="B73" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C73" s="4">
         <v>43455</v>
@@ -1501,7 +1507,7 @@
     </row>
     <row r="74" spans="2:3" s="12" customFormat="1">
       <c r="B74" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C74" s="4">
         <v>43455</v>
@@ -1509,286 +1515,282 @@
     </row>
     <row r="75" spans="2:3">
       <c r="B75" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C75" s="4">
         <v>43458</v>
       </c>
     </row>
     <row r="76" spans="2:3">
-      <c r="B76" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C76" s="2">
-        <v>43460</v>
+      <c r="B76" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C76" s="4">
+        <v>43463</v>
       </c>
     </row>
     <row r="77" spans="2:3">
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C77" s="2">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C77" s="2">
-        <v>43461</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3">
-      <c r="B78" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="C78" s="2">
-        <v>43461</v>
+        <v>43469</v>
       </c>
     </row>
     <row r="79" spans="2:3">
-      <c r="B79" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C79" s="2">
-        <v>43461</v>
-      </c>
+      <c r="B79" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C79" s="2"/>
     </row>
     <row r="80" spans="2:3">
-      <c r="B80" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C80" s="2">
-        <v>43461</v>
-      </c>
+      <c r="B80" s="8"/>
+      <c r="C80" s="2"/>
     </row>
     <row r="81" spans="2:3">
-      <c r="B81" s="8"/>
-      <c r="C81" s="2"/>
+      <c r="B81" t="s">
+        <v>59</v>
+      </c>
+      <c r="C81" s="2">
+        <v>43472</v>
+      </c>
     </row>
     <row r="82" spans="2:3">
       <c r="B82" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C82" s="2">
-        <v>43460</v>
+        <v>43473</v>
       </c>
     </row>
     <row r="83" spans="2:3">
-      <c r="B83" t="s">
-        <v>60</v>
-      </c>
-      <c r="C83" s="2">
-        <v>43460</v>
-      </c>
+      <c r="B83" s="11"/>
+      <c r="C83" s="2"/>
     </row>
     <row r="84" spans="2:3">
-      <c r="B84" s="11"/>
-      <c r="C84" s="2"/>
+      <c r="B84" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C84" s="2">
+        <v>43474</v>
+      </c>
     </row>
     <row r="85" spans="2:3">
       <c r="B85" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C85" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="C85" s="2">
+        <v>43475</v>
+      </c>
     </row>
     <row r="86" spans="2:3">
       <c r="B86" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C86" s="2">
-        <v>43462</v>
+        <v>43476</v>
       </c>
     </row>
     <row r="87" spans="2:3">
-      <c r="B87" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C87" s="2">
-        <v>43462</v>
-      </c>
+      <c r="B87" s="8"/>
+      <c r="C87" s="2"/>
     </row>
     <row r="88" spans="2:3">
-      <c r="B88" s="8"/>
-      <c r="C88" s="2"/>
+      <c r="B88" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" s="2">
+        <v>43480</v>
+      </c>
     </row>
     <row r="89" spans="2:3">
       <c r="B89" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C89" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="C89" s="2">
+        <v>43479</v>
+      </c>
     </row>
     <row r="90" spans="2:3">
-      <c r="B90" s="8" t="s">
-        <v>99</v>
-      </c>
       <c r="C90" s="2"/>
     </row>
     <row r="91" spans="2:3">
+      <c r="B91" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="C91" s="2"/>
     </row>
     <row r="92" spans="2:3">
-      <c r="B92" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C92" s="2"/>
+      <c r="B92" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C92" s="2">
+        <v>43481</v>
+      </c>
     </row>
     <row r="93" spans="2:3">
       <c r="B93" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C93" s="2">
-        <v>43459</v>
+        <v>43481</v>
       </c>
     </row>
     <row r="94" spans="2:3">
-      <c r="B94" s="11" t="s">
-        <v>66</v>
+      <c r="B94" t="s">
+        <v>33</v>
       </c>
       <c r="C94" s="2">
-        <v>43459</v>
+        <v>43482</v>
       </c>
     </row>
     <row r="95" spans="2:3">
       <c r="B95" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C95" s="2">
-        <v>43460</v>
+        <v>43482</v>
       </c>
     </row>
     <row r="96" spans="2:3">
-      <c r="B96" t="s">
-        <v>34</v>
-      </c>
-      <c r="C96" s="2">
-        <v>43460</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="C96" s="2"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="B97" t="s">
+        <v>35</v>
+      </c>
       <c r="C97" s="2"/>
     </row>
-    <row r="98" spans="1:3">
-      <c r="B98" t="s">
-        <v>35</v>
-      </c>
-      <c r="C98" s="2"/>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="B100" s="1" t="s">
+    <row r="99" spans="1:4">
+      <c r="B99" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C100" s="2"/>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="C99" s="2"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="B100" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C100" s="2">
+        <v>43493</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="B101" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C101" s="2">
         <v>43493</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
-      <c r="B102" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C102" s="2">
-        <v>43493</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="1" t="s">
+    <row r="103" spans="1:4">
+      <c r="A103" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="1"/>
-      <c r="B105" t="s">
+    <row r="104" spans="1:4">
+      <c r="A104" s="1"/>
+      <c r="B104" t="s">
         <v>43</v>
       </c>
+      <c r="C104" s="2"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="B105" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="C105" s="2"/>
     </row>
-    <row r="106" spans="1:3">
-      <c r="B106" s="11" t="s">
-        <v>59</v>
+    <row r="106" spans="1:4">
+      <c r="B106" t="s">
+        <v>45</v>
       </c>
       <c r="C106" s="2"/>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:4">
+      <c r="A107" s="1"/>
       <c r="B107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C107" s="2"/>
     </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="1"/>
+    <row r="108" spans="1:4">
       <c r="B108" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C108" s="2"/>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:4">
       <c r="B109" t="s">
-        <v>46</v>
-      </c>
-      <c r="C109" s="2"/>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="B110" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="1" t="s">
+    <row r="111" spans="1:4">
+      <c r="A111" s="1" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="B112" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C112" s="4">
+        <v>43452</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="113" spans="2:4">
       <c r="B113" s="6" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C113" s="4">
-        <v>43452</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>95</v>
+        <v>43454</v>
       </c>
     </row>
     <row r="114" spans="2:4">
       <c r="B114" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C114" s="4">
+        <v>43455</v>
+      </c>
+      <c r="D114" s="8"/>
+    </row>
+    <row r="115" spans="2:4">
+      <c r="B115" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C114" s="4">
-        <v>43454</v>
-      </c>
-    </row>
-    <row r="115" spans="2:4">
-      <c r="B115" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C115" s="4">
-        <v>43455</v>
-      </c>
-      <c r="D115" s="8"/>
+      <c r="C115" s="2"/>
     </row>
     <row r="116" spans="2:4">
       <c r="B116" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4">
+      <c r="B117" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4">
+      <c r="B118" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C116" s="2"/>
-    </row>
-    <row r="117" spans="2:4">
-      <c r="B117" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="118" spans="2:4">
-      <c r="B118" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="119" spans="2:4">
-      <c r="B119" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>87</v>
+      <c r="D118" s="8" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
